--- a/SELLSPECIFIC.xlsx
+++ b/SELLSPECIFIC.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>krsnaa</t>
+    <t>krsna</t>
   </si>
 </sst>
 </file>
